--- a/src/main/resources/business.xlsx
+++ b/src/main/resources/business.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7725"/>
+    <workbookView windowWidth="20385" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
     <sheet name="订单接口" sheetId="2" r:id="rId2"/>
     <sheet name="商品接口" sheetId="3" r:id="rId3"/>
+    <sheet name="商家接口" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>欧宝商家端</t>
   </si>
@@ -62,7 +63,7 @@
 orderVo.order.state=
    0:最新订单
    1:处理中订单
-   2:带领取订单
+   2:待领取订单
 }</t>
   </si>
   <si>
@@ -117,7 +118,31 @@
 }</t>
   </si>
   <si>
-    <t>拒绝订单(改变订单状态+拒绝原因businessRemark)</t>
+    <t>查询商家设置的拒单原因</t>
+  </si>
+  <si>
+    <t>http://HOST_API/b_order_findRefuseOrderReasons.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+orderVo.reason.businessId=
+}</t>
+  </si>
+  <si>
+    <t>{
+ result:true
+ msg:""
+ data:[
+  {
+    refuse_id=:,
+    reason:
+   }
+   ...
+ ]
+}</t>
+  </si>
+  <si>
+    <t>拒绝订单(改变订单状态+拒绝原因)</t>
   </si>
   <si>
     <t>http://HOST_API/b_order_refuseOrder.htm</t>
@@ -141,6 +166,68 @@
 }</t>
   </si>
   <si>
+    <t>保存拒单原因</t>
+  </si>
+  <si>
+    <t>http://HOST_API/b_order_addRefuseReason.htm</t>
+  </si>
+  <si>
+    <t>{
+  [
+    orderVo.reason.refuseId=,
+    orderVo.reason.businessId=,
+    orderVo.reason.reason=
+  ]
+  ...
+}</t>
+  </si>
+  <si>
+    <t>{
+ result:true
+ msg:"EDIT_SUCCESS"
+ data:null
+}</t>
+  </si>
+  <si>
+    <t>删除拒单原因</t>
+  </si>
+  <si>
+    <t>http://HOST_API/b_order_deletaRefuseReason.htm</t>
+  </si>
+  <si>
+    <t>{
+ orderVo.reason.refuseId=
+}</t>
+  </si>
+  <si>
+    <t>{
+ result:true
+ msg:"OPERATION_SUCCESS"
+ data:null
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 查看订单被拒原因</t>
+  </si>
+  <si>
+    <t>http://HOST_API/b_order_findRefuseReason.htm</t>
+  </si>
+  <si>
+    <t>{
+ orderVo.order.refuseId=
+}</t>
+  </si>
+  <si>
+    <t>{
+ result:true
+ msg:""
+ data:
+  {
+    reason:
+   }
+}</t>
+  </si>
+  <si>
     <t>显示商家下所有商品（默认按添加时间降序排列）</t>
   </si>
   <si>
@@ -155,7 +242,7 @@
     <t>{
  result:true
  msg:""
- data:[
+ data:
  {
    product_id: ,
    product_name: ,
@@ -165,7 +252,6 @@
    new_price:,
    sales:
  }
-]
 }</t>
   </si>
   <si>
@@ -379,9 +465,77 @@
 }</t>
   </si>
   <si>
-    <t>{
- result:true
- msg:"OPERATION_SUCCESS"
+    <t>显示个人中心信息</t>
+  </si>
+  <si>
+    <t>http://HOST_API/b_business_showPersonCenter.htm</t>
+  </si>
+  <si>
+    <t>{
+  businessVo.business.business_id=
+}</t>
+  </si>
+  <si>
+    <t>{
+ result:true,
+ msg:"",
+ data:{
+  business_id:,
+  photo:,
+  name:,
+  address:,
+  phone:,
+  todaySales:,
+  totalSales:
+ }
+}</t>
+  </si>
+  <si>
+    <t>{
+result:false,
+msg:"EXCEPTION_TIP",
+data:null
+}</t>
+  </si>
+  <si>
+    <t>查找商家信息</t>
+  </si>
+  <si>
+    <t>http://HOST_API/b_business_findBusinessInfo.htm</t>
+  </si>
+  <si>
+    <t>{
+ result:true,
+ msg:"",
+ data:{
+  business_id:,
+  photo:,
+  name:,
+  address:,
+  phone:,
+  domainName:（所属区域）
+ }
+}</t>
+  </si>
+  <si>
+    <t>修改商家信息</t>
+  </si>
+  <si>
+    <t>http://HOST_API/b_business_editBusinessInfo.htm</t>
+  </si>
+  <si>
+    <t>{
+  businessVo.business.business_id=
+  businessVo.business.name=,
+  businessVo.business.phone=,
+  businessVo.business.address=,
+  businessVo.business.phone=
+}</t>
+  </si>
+  <si>
+    <t>{
+ result:true,
+ msg:"EDIT_SUCCESS",
  data:null
 }</t>
   </si>
@@ -391,12 +545,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,69 +582,144 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,112 +732,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -631,25 +754,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,145 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,6 +960,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -848,6 +980,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,41 +1027,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -915,152 +1038,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,11 +1193,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1082,28 +1208,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,73 +1543,73 @@
   <sheetPr/>
   <dimension ref="D1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="4:10">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="4:10">
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="4:10">
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="4:10">
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="4:10">
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="4:6">
       <c r="D7">
@@ -1518,13 +1638,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="39.4" customWidth="1"/>
     <col min="4" max="4" width="27.3" customWidth="1"/>
@@ -1550,89 +1670,169 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" ht="272" customHeight="1" spans="1:6">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="102" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="102" spans="1:6">
-      <c r="A5">
+    <row r="5" ht="153" spans="1:6">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="102" spans="1:6">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="267.75" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    <row r="7" ht="267.75" spans="1:6">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="102" spans="1:6">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="102" spans="1:6">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="102" spans="1:6">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1647,8 +1847,12 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="http://HOST_API/b_order_findOrdersByState.htm" tooltip="http://HOST_API/b_order_findOrdersByState.htm"/>
     <hyperlink ref="C4" r:id="rId2" display="http://HOST_API/b_order_changeOrderState.htm" tooltip="http://HOST_API/b_order_changeOrderState.htm"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://HOST_API/b_order_refuseOrder.htm" tooltip="http://HOST_API/b_order_refuseOrder.htm"/>
-    <hyperlink ref="C6" r:id="rId4" display="http://HOST_API/b_order_findOrdersByMealCode.htm" tooltip="http://HOST_API/b_order_findOrdersByMealCode.htm"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://HOST_API/b_order_refuseOrder.htm" tooltip="http://HOST_API/b_order_refuseOrder.htm"/>
+    <hyperlink ref="C7" r:id="rId4" display="http://HOST_API/b_order_findOrdersByMealCode.htm" tooltip="http://HOST_API/b_order_findOrdersByMealCode.htm"/>
+    <hyperlink ref="C5" r:id="rId5" display="http://HOST_API/b_order_findRefuseOrderReasons.htm" tooltip="http://HOST_API/b_order_findRefuseOrderReasons.htm"/>
+    <hyperlink ref="C8" r:id="rId6" display="http://HOST_API/b_order_addRefuseReason.htm" tooltip="http://HOST_API/b_order_addRefuseReason.htm"/>
+    <hyperlink ref="C9" r:id="rId7" display="http://HOST_API/b_order_deletaRefuseReason.htm" tooltip="http://HOST_API/b_order_deletaRefuseReason.htm"/>
+    <hyperlink ref="C10" r:id="rId8" display="http://HOST_API/b_order_findRefuseReason.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1660,8 +1864,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1673,7 +1877,7 @@
     <col min="6" max="6" width="20.2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:6">
+    <row r="1" customFormat="1" spans="2:6">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1690,30 +1894,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:6">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="2" customFormat="1" spans="2:6">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" ht="191.25" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1721,19 +1925,19 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1741,19 +1945,19 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1762,18 +1966,18 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1781,19 +1985,19 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1802,18 +2006,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1822,18 +2026,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1842,18 +2046,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1862,38 +2066,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="102" spans="1:6">
+    <row r="12" ht="76.5" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1920,4 +2124,124 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="45.4" customWidth="1"/>
+    <col min="4" max="4" width="33.3" customWidth="1"/>
+    <col min="5" max="5" width="26.9" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:6">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="165.75" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" ht="153" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" ht="89.25" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="http://HOST_API/b_business_showPersonCenter.htm" tooltip="http://HOST_API/b_business_showPersonCenter.htm"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://HOST_API/b_business_findBusinessInfo.htm"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://HOST_API/b_business_editBusinessInfo.htm"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/business.xlsx
+++ b/src/main/resources/business.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7725" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
   <si>
     <t xml:space="preserve"> {
 orderVo.order.orderId=
-orderVo.order.businessRemark=
+orderVo.reason.refuseId=
 }</t>
   </si>
   <si>
@@ -235,7 +235,7 @@
   </si>
   <si>
     <t xml:space="preserve"> {
-orderVo.business.businessId=
+product.business.businessId=
 }</t>
   </si>
   <si>
@@ -261,7 +261,8 @@
     <t>http://HOST_API/b_product_findBusinessProductsSortBySales.htm</t>
   </si>
   <si>
-    <t xml:space="preserve"> {
+    <t>{
+product.business.businessId=
 }</t>
   </si>
   <si>
@@ -545,19 +546,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +576,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -613,8 +614,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,25 +682,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,27 +726,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -687,53 +733,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,187 +743,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,11 +967,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,17 +1017,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,191 +1040,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1216,9 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,7 +1285,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="2E3436"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1550,66 +1548,66 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="4:10">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="4:10">
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="4:10">
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="4:10">
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="4:10">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="4:10">
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="4:6">
       <c r="D7">
@@ -1640,8 +1638,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1653,146 +1651,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" ht="272" customHeight="1" spans="1:6">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="102" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="153" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="102" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="267.75" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="102" spans="1:6">
-      <c r="A8" s="8">
+    <row r="8" s="6" customFormat="1" ht="102" spans="1:6">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1803,16 +1801,16 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1823,16 +1821,16 @@
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1864,8 +1862,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1878,46 +1876,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="2:6">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="191.25" spans="1:6">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" ht="178.5" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1928,16 +1926,16 @@
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1948,16 +1946,16 @@
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1968,36 +1966,36 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="191.25" spans="1:6">
+    <row r="7" ht="197.25" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2005,39 +2003,39 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="178.5" spans="1:6">
+    <row r="9" ht="184.5" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2048,16 +2046,16 @@
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2068,16 +2066,16 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2088,16 +2086,16 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2131,7 +2129,7 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2144,29 +2142,29 @@
     <col min="6" max="6" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="1" spans="2:6">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:6">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2" customFormat="1" spans="2:6">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" ht="165.75" spans="1:6">
       <c r="A3">
@@ -2175,36 +2173,36 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" ht="153" spans="1:6">
+    <row r="4" ht="156" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2215,16 +2213,16 @@
       <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>84</v>
       </c>
     </row>
